--- a/Diseño/Rendimiento.xlsx
+++ b/Diseño/Rendimiento.xlsx
@@ -3,19 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programacion\Java\Programación Avanzada\PhantomKick\SEL\Diseño\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14790" windowHeight="5775" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
     <sheet name="Gráfico de rendimiento" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:O17"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -191,17 +187,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -267,11 +263,11 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -285,11 +281,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -300,19 +294,62 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="75000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="accent1"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="1"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="es-AR"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
             <c:numRef>
               <c:f>Datos!$A$3:$A$11</c:f>
               <c:numCache>
@@ -347,8 +384,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>Datos!$B$3:$B$11</c:f>
               <c:numCache>
@@ -383,11 +420,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5694-4BF8-A3A9-2456D775CA19}"/>
+              <c16:uniqueId val="{00000000-65DE-4825-8316-1E232337317E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -399,18 +436,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="371325760"/>
-        <c:axId val="371318216"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="371325760"/>
+        <c:axId val="383866584"/>
+        <c:axId val="383869208"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="383866584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -420,8 +469,8 @@
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -448,15 +497,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371318216"/>
+        <c:crossAx val="383869208"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="371318216"/>
+        <c:axId val="383869208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -482,8 +528,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -507,9 +559,9 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="371325760"/>
+        <c:crossAx val="383866584"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -519,37 +571,6 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -628,7 +649,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -655,8 +676,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -757,7 +778,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -789,10 +810,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -832,22 +853,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -952,8 +974,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1085,19 +1107,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -1111,6 +1134,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -1141,16 +1175,16 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1E1F38A-A9CD-4537-83CC-F3ED41D83168}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ED1B747-DE2A-4068-9900-CBB065509627}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,16 +1517,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1581,8 +1615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
